--- a/output/StructureDefinition-usage-restriction.xlsx
+++ b/output/StructureDefinition-usage-restriction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/usage-restriction</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/usage-restriction</t>
   </si>
   <si>
     <t>Version</t>
@@ -362,7 +362,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Restriction)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Restriction)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-usage-restriction.xlsx
+++ b/output/StructureDefinition-usage-restriction.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NatlDir Usage Restriction</t>
+    <t>NatlDirEndpointQry Usage Restriction</t>
   </si>
   <si>
     <t>Status</t>

--- a/output/StructureDefinition-usage-restriction.xlsx
+++ b/output/StructureDefinition-usage-restriction.xlsx
@@ -815,14 +815,14 @@
     <col min="1" max="1" width="26.6640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="49.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="49.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -831,23 +831,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.73828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.7421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="19.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-usage-restriction.xlsx
+++ b/output/StructureDefinition-usage-restriction.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -134,7 +134,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>fhirpath:descendants()</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t>Path</t>
